--- a/result/proba.xlsx
+++ b/result/proba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Somme \ Etape</t>
   </si>
@@ -35,6 +35,51 @@
   </si>
   <si>
     <t>5E</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>11E</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>13E</t>
+  </si>
+  <si>
+    <t>14E</t>
+  </si>
+  <si>
+    <t>15E</t>
+  </si>
+  <si>
+    <t>16E</t>
+  </si>
+  <si>
+    <t>17E</t>
+  </si>
+  <si>
+    <t>18E</t>
+  </si>
+  <si>
+    <t>19E</t>
+  </si>
+  <si>
+    <t>20E</t>
   </si>
 </sst>
 </file>
@@ -375,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,7 +429,7 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +466,38 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -459,8 +534,38 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>143</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>728</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,8 +602,38 @@
       <c r="L3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>143</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>728</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3876</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,8 +670,38 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>143</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>728</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3876</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -573,8 +738,38 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>143</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>728</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>3876</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>21318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -611,8 +806,38 @@
       <c r="L6">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>585</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>3148</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>17442</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,6 +872,1056 @@
         <v>83</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>442</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2420</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>13566</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>53</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>299</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1692</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>9690</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>56221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>186</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1107</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>6542</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>38779</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>103</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>665</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4122</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>25213</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>366</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2430</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15523</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>97548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>180</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1323</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>8981</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>58769</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>77</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>658</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4859</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>33556</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>292</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2429</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>18033</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>126300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>112</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1106</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>9052</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>67531</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>35</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>448</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>4193</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>33975</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>156</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1764</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15942</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>128320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>658</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>6890</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>60789</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>210</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2697</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>26814</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>54</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>933</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10872</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>104184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>275</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>3982</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>43395</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>65</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1285</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>16581</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>0</v>
       </c>
     </row>
